--- a/data/pca/factorExposure/factorExposure_2014-12-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.00433814593599416</v>
+        <v>-0.008056797781656501</v>
       </c>
       <c r="C2">
-        <v>-0.04868136380420465</v>
+        <v>-0.06412078104410154</v>
       </c>
       <c r="D2">
-        <v>0.1725617209806093</v>
+        <v>-0.02067097375706467</v>
       </c>
       <c r="E2">
-        <v>-0.1185176647827088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.1640226896037729</v>
+      </c>
+      <c r="F2">
+        <v>-0.04698812157296043</v>
+      </c>
+      <c r="G2">
+        <v>0.1048532590314557</v>
+      </c>
+      <c r="H2">
+        <v>0.05851400059978747</v>
+      </c>
+      <c r="I2">
+        <v>-0.07261606244923713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.01824796789627909</v>
+        <v>-0.01347722126973406</v>
       </c>
       <c r="C4">
-        <v>-0.140540868709085</v>
+        <v>-0.1507398441651239</v>
       </c>
       <c r="D4">
-        <v>0.1043278595258245</v>
+        <v>0.01023284553205383</v>
       </c>
       <c r="E4">
-        <v>-0.05687701898761322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.1038933451625587</v>
+      </c>
+      <c r="F4">
+        <v>0.0670377622356879</v>
+      </c>
+      <c r="G4">
+        <v>0.0377022360209834</v>
+      </c>
+      <c r="H4">
+        <v>0.100962953619325</v>
+      </c>
+      <c r="I4">
+        <v>0.02278904577787336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.009487380945714829</v>
+        <v>-0.02846805778585283</v>
       </c>
       <c r="C6">
-        <v>-0.06288127224256414</v>
+        <v>-0.07101092328467787</v>
       </c>
       <c r="D6">
-        <v>0.07772738340538111</v>
+        <v>-0.0003409145404895217</v>
       </c>
       <c r="E6">
-        <v>-0.07611158011304286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.1081009013101681</v>
+      </c>
+      <c r="F6">
+        <v>-0.03641640125170686</v>
+      </c>
+      <c r="G6">
+        <v>-0.01461555929650356</v>
+      </c>
+      <c r="H6">
+        <v>0.03943227893358273</v>
+      </c>
+      <c r="I6">
+        <v>-0.03022730007399965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01812252957760032</v>
+        <v>-0.004385734441414206</v>
       </c>
       <c r="C7">
-        <v>-0.03795912108041782</v>
+        <v>-0.0600285609704565</v>
       </c>
       <c r="D7">
-        <v>0.0565312114139269</v>
+        <v>-0.005328705585106931</v>
       </c>
       <c r="E7">
-        <v>-0.05605804191714336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.06871424309401696</v>
+      </c>
+      <c r="F7">
+        <v>0.02485182147361227</v>
+      </c>
+      <c r="G7">
+        <v>-0.04193448048381183</v>
+      </c>
+      <c r="H7">
+        <v>0.08199195092006552</v>
+      </c>
+      <c r="I7">
+        <v>-0.005181061716366566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0147428400692153</v>
+        <v>0.008811481590795556</v>
       </c>
       <c r="C8">
-        <v>-0.06168289345604009</v>
+        <v>-0.06696945651740241</v>
       </c>
       <c r="D8">
-        <v>0.0821193468253802</v>
+        <v>0.0166784858668068</v>
       </c>
       <c r="E8">
-        <v>-0.1034748175052041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.08657990402304348</v>
+      </c>
+      <c r="F8">
+        <v>0.02357503551433071</v>
+      </c>
+      <c r="G8">
+        <v>0.0679861377844632</v>
+      </c>
+      <c r="H8">
+        <v>0.02640406830716895</v>
+      </c>
+      <c r="I8">
+        <v>-0.005584389251544401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.007701610422053785</v>
+        <v>-0.006379920549099635</v>
       </c>
       <c r="C9">
-        <v>-0.1204831433869184</v>
+        <v>-0.1203325676187869</v>
       </c>
       <c r="D9">
-        <v>0.08302108457568794</v>
+        <v>0.007620518237663569</v>
       </c>
       <c r="E9">
-        <v>-0.05602926012158943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.07520064752662278</v>
+      </c>
+      <c r="F9">
+        <v>0.01170892952019434</v>
+      </c>
+      <c r="G9">
+        <v>0.008269727434355877</v>
+      </c>
+      <c r="H9">
+        <v>0.09956988758225514</v>
+      </c>
+      <c r="I9">
+        <v>0.001525138110469639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2476654387478836</v>
+        <v>-0.2491087681990312</v>
       </c>
       <c r="C10">
-        <v>0.07044364323139697</v>
+        <v>0.07379779721805428</v>
       </c>
       <c r="D10">
-        <v>0.0004259943696525811</v>
+        <v>0.002893067905455105</v>
       </c>
       <c r="E10">
-        <v>0.0815086694197993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01021569584258008</v>
+      </c>
+      <c r="F10">
+        <v>0.006996893029173443</v>
+      </c>
+      <c r="G10">
+        <v>-0.0001297035079105548</v>
+      </c>
+      <c r="H10">
+        <v>0.03144960749648694</v>
+      </c>
+      <c r="I10">
+        <v>0.1797760136164696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0001660772485465705</v>
+        <v>-0.008931998403252456</v>
       </c>
       <c r="C11">
-        <v>-0.05387809466968842</v>
+        <v>-0.07681041879407274</v>
       </c>
       <c r="D11">
-        <v>0.0406863575536066</v>
+        <v>0.01109822321625057</v>
       </c>
       <c r="E11">
-        <v>-0.03624622269578185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04376569009832523</v>
+      </c>
+      <c r="F11">
+        <v>0.01086279797960769</v>
+      </c>
+      <c r="G11">
+        <v>-0.02907246140085288</v>
+      </c>
+      <c r="H11">
+        <v>0.04095787427773707</v>
+      </c>
+      <c r="I11">
+        <v>-0.000956182649014566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.002381436810040732</v>
+        <v>-0.01067709651058635</v>
       </c>
       <c r="C12">
-        <v>-0.0509460944416802</v>
+        <v>-0.06009448813331612</v>
       </c>
       <c r="D12">
-        <v>0.03355698893651673</v>
+        <v>0.001927160424189846</v>
       </c>
       <c r="E12">
-        <v>-0.03170679160540885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03604804583826206</v>
+      </c>
+      <c r="F12">
+        <v>-0.01936914367986579</v>
+      </c>
+      <c r="G12">
+        <v>-0.03203957362025426</v>
+      </c>
+      <c r="H12">
+        <v>0.04219125259267172</v>
+      </c>
+      <c r="I12">
+        <v>0.006615042868059507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.003117666179838686</v>
+        <v>-0.0004011616281384839</v>
       </c>
       <c r="C13">
-        <v>-0.06810272080860116</v>
+        <v>-0.1037016423886047</v>
       </c>
       <c r="D13">
-        <v>0.1147911994085345</v>
+        <v>-0.01978239672850216</v>
       </c>
       <c r="E13">
-        <v>-0.1193421898111496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.1599428789333697</v>
+      </c>
+      <c r="F13">
+        <v>-0.1008963377466265</v>
+      </c>
+      <c r="G13">
+        <v>-0.03496102923929335</v>
+      </c>
+      <c r="H13">
+        <v>0.09154784959836987</v>
+      </c>
+      <c r="I13">
+        <v>0.09265193366292354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.005137883095436238</v>
+        <v>-0.007336603466908379</v>
       </c>
       <c r="C14">
-        <v>-0.04195520494834982</v>
+        <v>-0.06908598737228368</v>
       </c>
       <c r="D14">
-        <v>0.05853762488232652</v>
+        <v>0.01424906972837159</v>
       </c>
       <c r="E14">
-        <v>-0.06739525991674829</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.09605958123337023</v>
+      </c>
+      <c r="F14">
+        <v>-0.03054508663017647</v>
+      </c>
+      <c r="G14">
+        <v>-0.06441636211133431</v>
+      </c>
+      <c r="H14">
+        <v>0.159568152665289</v>
+      </c>
+      <c r="I14">
+        <v>-0.03640603079826171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001504384435333564</v>
+        <v>0.003252063469691394</v>
       </c>
       <c r="C15">
-        <v>-0.05865764476789212</v>
+        <v>-0.06776533463041147</v>
       </c>
       <c r="D15">
-        <v>0.06780065907458212</v>
+        <v>0.002615212298763656</v>
       </c>
       <c r="E15">
-        <v>-0.0689658801551228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.06349971267852705</v>
+      </c>
+      <c r="F15">
+        <v>0.007848016043941053</v>
+      </c>
+      <c r="G15">
+        <v>-0.01166970261362398</v>
+      </c>
+      <c r="H15">
+        <v>0.05227875272725434</v>
+      </c>
+      <c r="I15">
+        <v>-0.01046252519968551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.002872762146553812</v>
+        <v>-0.009253843541984857</v>
       </c>
       <c r="C16">
-        <v>-0.05007169842972938</v>
+        <v>-0.06507060811939301</v>
       </c>
       <c r="D16">
-        <v>0.03331509819631474</v>
+        <v>0.002677290188553501</v>
       </c>
       <c r="E16">
-        <v>-0.02330095937169739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02983566796700005</v>
+      </c>
+      <c r="F16">
+        <v>-0.001068530728557745</v>
+      </c>
+      <c r="G16">
+        <v>-0.03022263624546005</v>
+      </c>
+      <c r="H16">
+        <v>0.0375057768513198</v>
+      </c>
+      <c r="I16">
+        <v>0.006503832260675368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1216,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1245,225 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.006072559789736</v>
+        <v>-0.00276129057323567</v>
       </c>
       <c r="C20">
-        <v>-0.05264198388508091</v>
+        <v>-0.07754324002479408</v>
       </c>
       <c r="D20">
-        <v>0.07640458606938322</v>
+        <v>-0.009637148470465227</v>
       </c>
       <c r="E20">
-        <v>-0.04217858189144186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.06688405708328266</v>
+      </c>
+      <c r="F20">
+        <v>0.01702526369346855</v>
+      </c>
+      <c r="G20">
+        <v>-0.06118578407754473</v>
+      </c>
+      <c r="H20">
+        <v>0.0676210167608207</v>
+      </c>
+      <c r="I20">
+        <v>-0.0007319189250989896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.001636782552852545</v>
+        <v>-0.006727579479066225</v>
       </c>
       <c r="C21">
-        <v>-0.06574109440165449</v>
+        <v>-0.07533348754435849</v>
       </c>
       <c r="D21">
-        <v>0.1092074450895278</v>
+        <v>-0.006092093142817621</v>
       </c>
       <c r="E21">
-        <v>-0.05018481936042163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.09861322759761459</v>
+      </c>
+      <c r="F21">
+        <v>-0.0734055030123193</v>
+      </c>
+      <c r="G21">
+        <v>0.007961590762868885</v>
+      </c>
+      <c r="H21">
+        <v>0.1797645796947952</v>
+      </c>
+      <c r="I21">
+        <v>0.04149233887509577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01532141374307037</v>
+        <v>0.01657818494558506</v>
       </c>
       <c r="C22">
-        <v>-0.09834051877483724</v>
+        <v>-0.1293352262661931</v>
       </c>
       <c r="D22">
-        <v>0.273430737437548</v>
+        <v>-0.05739745161593337</v>
       </c>
       <c r="E22">
-        <v>-0.1056919370525116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.3137585067453377</v>
+      </c>
+      <c r="F22">
+        <v>0.1185067728341538</v>
+      </c>
+      <c r="G22">
+        <v>0.3190763096563308</v>
+      </c>
+      <c r="H22">
+        <v>-0.4120549277715261</v>
+      </c>
+      <c r="I22">
+        <v>0.03664442424672038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01578008154531716</v>
+        <v>0.0131848086137771</v>
       </c>
       <c r="C23">
-        <v>-0.09997411134037471</v>
+        <v>-0.133637771585012</v>
       </c>
       <c r="D23">
-        <v>0.2722434253515961</v>
+        <v>-0.05988138586583831</v>
       </c>
       <c r="E23">
-        <v>-0.1049078516425373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.3083864689112154</v>
+      </c>
+      <c r="F23">
+        <v>0.1128349707745342</v>
+      </c>
+      <c r="G23">
+        <v>0.3097465752489432</v>
+      </c>
+      <c r="H23">
+        <v>-0.3847003606296965</v>
+      </c>
+      <c r="I23">
+        <v>0.03896565874651985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.003414447503692126</v>
+        <v>-0.009259331517063768</v>
       </c>
       <c r="C24">
-        <v>-0.06597462388479794</v>
+        <v>-0.07488095082905817</v>
       </c>
       <c r="D24">
-        <v>0.03700560479671327</v>
+        <v>0.01543856025808014</v>
       </c>
       <c r="E24">
-        <v>-0.04605589839349086</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.04691569350384148</v>
+      </c>
+      <c r="F24">
+        <v>0.003949067293955232</v>
+      </c>
+      <c r="G24">
+        <v>-0.0325760942273309</v>
+      </c>
+      <c r="H24">
+        <v>0.05578285190208414</v>
+      </c>
+      <c r="I24">
+        <v>-0.0004231502138457578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.003598043616575917</v>
+        <v>-0.0147822968142097</v>
       </c>
       <c r="C25">
-        <v>-0.06561979600221049</v>
+        <v>-0.0744015404875204</v>
       </c>
       <c r="D25">
-        <v>0.03643550511165641</v>
+        <v>0.007617538063689675</v>
       </c>
       <c r="E25">
-        <v>-0.02078652698815767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03443098696696013</v>
+      </c>
+      <c r="F25">
+        <v>0.006107757079998294</v>
+      </c>
+      <c r="G25">
+        <v>-0.02906730133079322</v>
+      </c>
+      <c r="H25">
+        <v>0.03757894654718164</v>
+      </c>
+      <c r="I25">
+        <v>0.01635499843994439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.002862650102112976</v>
+        <v>-0.01591725079144059</v>
       </c>
       <c r="C26">
-        <v>-0.03962413800639125</v>
+        <v>-0.05860618535710311</v>
       </c>
       <c r="D26">
-        <v>0.04654814995953901</v>
+        <v>0.03452748818795826</v>
       </c>
       <c r="E26">
-        <v>-0.0608223547273915</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.06463341402014303</v>
+      </c>
+      <c r="F26">
+        <v>-0.003573409019381818</v>
+      </c>
+      <c r="G26">
+        <v>-0.01963841975089074</v>
+      </c>
+      <c r="H26">
+        <v>0.1327591653592146</v>
+      </c>
+      <c r="I26">
+        <v>0.01404432289921103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3215698730613356</v>
+        <v>-0.3136414205339034</v>
       </c>
       <c r="C28">
-        <v>0.08387755813526133</v>
+        <v>0.09551057122698144</v>
       </c>
       <c r="D28">
-        <v>0.003789978691639381</v>
+        <v>-0.01296392522524812</v>
       </c>
       <c r="E28">
-        <v>0.07417345996833002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.006897856774168219</v>
+      </c>
+      <c r="F28">
+        <v>0.04464430837213908</v>
+      </c>
+      <c r="G28">
+        <v>0.07256354781674917</v>
+      </c>
+      <c r="H28">
+        <v>0.06545225838013681</v>
+      </c>
+      <c r="I28">
+        <v>0.1886890035216073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.00386987248903234</v>
+        <v>-0.003474283345466146</v>
       </c>
       <c r="C29">
-        <v>-0.04408608970853091</v>
+        <v>-0.07212700728716295</v>
       </c>
       <c r="D29">
-        <v>0.07406432912894705</v>
+        <v>0.008487076656147981</v>
       </c>
       <c r="E29">
-        <v>-0.08703036051982295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.1176459016668742</v>
+      </c>
+      <c r="F29">
+        <v>-0.04345106967769257</v>
+      </c>
+      <c r="G29">
+        <v>-0.09122095584272966</v>
+      </c>
+      <c r="H29">
+        <v>0.2005748658430828</v>
+      </c>
+      <c r="I29">
+        <v>-0.05829761054579813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01344926923781303</v>
+        <v>-0.01751009725104119</v>
       </c>
       <c r="C30">
-        <v>-0.1462419049087631</v>
+        <v>-0.1465662116238564</v>
       </c>
       <c r="D30">
-        <v>0.1101318757821876</v>
+        <v>0.01328127108440757</v>
       </c>
       <c r="E30">
-        <v>-0.09081529417975413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.1025003759734125</v>
+      </c>
+      <c r="F30">
+        <v>0.02470412688047412</v>
+      </c>
+      <c r="G30">
+        <v>0.0220648950210027</v>
+      </c>
+      <c r="H30">
+        <v>0.03759141667474662</v>
+      </c>
+      <c r="I30">
+        <v>-0.02697229781460189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.006922573506821993</v>
+        <v>-0.004627001969883163</v>
       </c>
       <c r="C31">
-        <v>-0.09493010642617211</v>
+        <v>-0.09880771311973283</v>
       </c>
       <c r="D31">
-        <v>-0.006106434064203943</v>
+        <v>0.02561352440568546</v>
       </c>
       <c r="E31">
-        <v>-0.02252175817571231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.003761429106363054</v>
+      </c>
+      <c r="F31">
+        <v>0.001622397361037327</v>
+      </c>
+      <c r="G31">
+        <v>0.01844035622989679</v>
+      </c>
+      <c r="H31">
+        <v>0.05596063837710072</v>
+      </c>
+      <c r="I31">
+        <v>0.02396944894136353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01298980694231256</v>
+        <v>-0.01881926479074937</v>
       </c>
       <c r="C32">
-        <v>-0.06072555176616511</v>
+        <v>-0.06426093025359161</v>
       </c>
       <c r="D32">
-        <v>0.1273481883928589</v>
+        <v>-0.02265460281801677</v>
       </c>
       <c r="E32">
-        <v>-0.05239592771201498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.1121649630606243</v>
+      </c>
+      <c r="F32">
+        <v>-0.02969783789517238</v>
+      </c>
+      <c r="G32">
+        <v>0.02969429647905706</v>
+      </c>
+      <c r="H32">
+        <v>0.1067812800076293</v>
+      </c>
+      <c r="I32">
+        <v>0.2148407406249038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006242711381981672</v>
+        <v>-0.006097360987587635</v>
       </c>
       <c r="C33">
-        <v>-0.08029672991241472</v>
+        <v>-0.1063007196629543</v>
       </c>
       <c r="D33">
-        <v>0.05790005257442024</v>
+        <v>0.001206588658846975</v>
       </c>
       <c r="E33">
-        <v>-0.05965502005451188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.07347322155544411</v>
+      </c>
+      <c r="F33">
+        <v>0.00126144093586919</v>
+      </c>
+      <c r="G33">
+        <v>-0.02903779908338096</v>
+      </c>
+      <c r="H33">
+        <v>0.0595923624317561</v>
+      </c>
+      <c r="I33">
+        <v>0.0285580888867447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.002984569625878246</v>
+        <v>-0.009830574449451212</v>
       </c>
       <c r="C34">
-        <v>-0.05318943086527844</v>
+        <v>-0.05695774985413495</v>
       </c>
       <c r="D34">
-        <v>0.02038326221885293</v>
+        <v>0.007649750832424697</v>
       </c>
       <c r="E34">
-        <v>-0.02362913274857441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02418038945568248</v>
+      </c>
+      <c r="F34">
+        <v>-0.01059449186083419</v>
+      </c>
+      <c r="G34">
+        <v>-0.03009523647397546</v>
+      </c>
+      <c r="H34">
+        <v>0.01464544283881664</v>
+      </c>
+      <c r="I34">
+        <v>0.01876352829417417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001342727282298313</v>
+        <v>-0.005553527737754402</v>
       </c>
       <c r="C35">
-        <v>-0.006648408168282751</v>
+        <v>-0.03372949723961336</v>
       </c>
       <c r="D35">
-        <v>0.0116656630106191</v>
+        <v>0.001230147400933371</v>
       </c>
       <c r="E35">
-        <v>-0.006238687123013207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.04234868252347299</v>
+      </c>
+      <c r="F35">
+        <v>-0.008149898001567315</v>
+      </c>
+      <c r="G35">
+        <v>-0.03802635898324799</v>
+      </c>
+      <c r="H35">
+        <v>0.1136987238420162</v>
+      </c>
+      <c r="I35">
+        <v>-0.00341317934863581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0007322590746041032</v>
+        <v>-0.007679094566653822</v>
       </c>
       <c r="C36">
-        <v>-0.03496004451154894</v>
+        <v>-0.04631171658472242</v>
       </c>
       <c r="D36">
-        <v>0.04156747559925023</v>
+        <v>0.02263212153980522</v>
       </c>
       <c r="E36">
-        <v>-0.0666058695621603</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.06387601325573343</v>
+      </c>
+      <c r="F36">
+        <v>-0.001823812375454291</v>
+      </c>
+      <c r="G36">
+        <v>-0.0141416310825708</v>
+      </c>
+      <c r="H36">
+        <v>0.07418623562476992</v>
+      </c>
+      <c r="I36">
+        <v>0.002148045906310531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.005676369043523203</v>
+        <v>-0.006552339995184172</v>
       </c>
       <c r="C38">
-        <v>-0.03946792411516453</v>
+        <v>-0.05926840433559145</v>
       </c>
       <c r="D38">
-        <v>0.04418788942701668</v>
+        <v>0.01054426963370832</v>
       </c>
       <c r="E38">
-        <v>-0.05110603550978933</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.067404071242488</v>
+      </c>
+      <c r="F38">
+        <v>0.04741027285828013</v>
+      </c>
+      <c r="G38">
+        <v>-0.006647998649300175</v>
+      </c>
+      <c r="H38">
+        <v>0.06271385389872951</v>
+      </c>
+      <c r="I38">
+        <v>0.03398946394339754</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.001213174323675369</v>
+        <v>-0.006902486119428624</v>
       </c>
       <c r="C39">
-        <v>-0.1104597453526332</v>
+        <v>-0.1235511780213706</v>
       </c>
       <c r="D39">
-        <v>0.07795155386151796</v>
+        <v>0.02093117738859838</v>
       </c>
       <c r="E39">
-        <v>-0.06651344642314047</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06720622532820582</v>
+      </c>
+      <c r="F39">
+        <v>-0.01334905739239882</v>
+      </c>
+      <c r="G39">
+        <v>-0.04737539677950905</v>
+      </c>
+      <c r="H39">
+        <v>0.05278772805570874</v>
+      </c>
+      <c r="I39">
+        <v>-0.04277623561872719</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.003173402131306</v>
+        <v>-0.00742475361202975</v>
       </c>
       <c r="C40">
-        <v>-0.01231716119132686</v>
+        <v>-0.05346503852706593</v>
       </c>
       <c r="D40">
-        <v>0.08010254544951477</v>
+        <v>-0.006364305841913468</v>
       </c>
       <c r="E40">
-        <v>-0.1054927546803005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.1350569998612344</v>
+      </c>
+      <c r="F40">
+        <v>-0.02873470073805439</v>
+      </c>
+      <c r="G40">
+        <v>-0.06829432818175055</v>
+      </c>
+      <c r="H40">
+        <v>-0.001058294331345799</v>
+      </c>
+      <c r="I40">
+        <v>0.02968182833478496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.004216707362110429</v>
+        <v>-0.01615640328619087</v>
       </c>
       <c r="C41">
-        <v>-0.02525050455135784</v>
+        <v>-0.04976569371073017</v>
       </c>
       <c r="D41">
-        <v>-0.002736690298584126</v>
+        <v>0.004926420928812575</v>
       </c>
       <c r="E41">
-        <v>0.008297156872431025</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.00238346433105157</v>
+      </c>
+      <c r="F41">
+        <v>0.005121141801410205</v>
+      </c>
+      <c r="G41">
+        <v>-0.01154050679771493</v>
+      </c>
+      <c r="H41">
+        <v>0.03427117344552624</v>
+      </c>
+      <c r="I41">
+        <v>0.04641310392641211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008479985936353299</v>
+        <v>-0.007706452981854435</v>
       </c>
       <c r="C43">
-        <v>-0.01327509614504802</v>
+        <v>-0.03953595993827737</v>
       </c>
       <c r="D43">
-        <v>0.022093247876134</v>
+        <v>0.01209006678704271</v>
       </c>
       <c r="E43">
-        <v>-0.02443736272666894</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.03314620053472116</v>
+      </c>
+      <c r="F43">
+        <v>0.01387348946322903</v>
+      </c>
+      <c r="G43">
+        <v>-0.02249966125072265</v>
+      </c>
+      <c r="H43">
+        <v>0.04960988333604613</v>
+      </c>
+      <c r="I43">
+        <v>0.02220212858054584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01127922432430514</v>
+        <v>-0.004536877817994901</v>
       </c>
       <c r="C44">
-        <v>-0.06281676436038393</v>
+        <v>-0.07845399543560889</v>
       </c>
       <c r="D44">
-        <v>0.1040442166594187</v>
+        <v>0.02094282325920254</v>
       </c>
       <c r="E44">
-        <v>-0.08994933248953077</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.1170656640835389</v>
+      </c>
+      <c r="F44">
+        <v>0.007448622969657946</v>
+      </c>
+      <c r="G44">
+        <v>-0.006209639640378364</v>
+      </c>
+      <c r="H44">
+        <v>0.02474611577136945</v>
+      </c>
+      <c r="I44">
+        <v>-0.03644443200877008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007749839130075486</v>
+        <v>0.002418746316266888</v>
       </c>
       <c r="C46">
-        <v>-0.04605766088699877</v>
+        <v>-0.06143292195386695</v>
       </c>
       <c r="D46">
-        <v>0.06366249278733324</v>
+        <v>0.01417377177462359</v>
       </c>
       <c r="E46">
-        <v>-0.08939001370304371</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.07796918699674532</v>
+      </c>
+      <c r="F46">
+        <v>-0.001924649696120585</v>
+      </c>
+      <c r="G46">
+        <v>-0.05342030362322962</v>
+      </c>
+      <c r="H46">
+        <v>0.1216845760860914</v>
+      </c>
+      <c r="I46">
+        <v>-0.01559183731746931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.01031786703252601</v>
+        <v>-0.01882865731773194</v>
       </c>
       <c r="C47">
-        <v>-0.1292842765373318</v>
+        <v>-0.1102176352935342</v>
       </c>
       <c r="D47">
-        <v>-0.02175653327767562</v>
+        <v>0.02803101514431313</v>
       </c>
       <c r="E47">
-        <v>0.03022762551860824</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02105223105016886</v>
+      </c>
+      <c r="F47">
+        <v>0.004156496757603049</v>
+      </c>
+      <c r="G47">
+        <v>0.007282781501711184</v>
+      </c>
+      <c r="H47">
+        <v>0.08041048657891423</v>
+      </c>
+      <c r="I47">
+        <v>0.04257061939078869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.003801396494863694</v>
+        <v>-0.01352389906065528</v>
       </c>
       <c r="C48">
-        <v>-0.03723750177851215</v>
+        <v>-0.05169591347537508</v>
       </c>
       <c r="D48">
-        <v>0.03101448398435134</v>
+        <v>0.03020192973237163</v>
       </c>
       <c r="E48">
-        <v>-0.07693133799242219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.06599785439556931</v>
+      </c>
+      <c r="F48">
+        <v>0.002266523630123851</v>
+      </c>
+      <c r="G48">
+        <v>-0.01716679732623616</v>
+      </c>
+      <c r="H48">
+        <v>0.1258900520860812</v>
+      </c>
+      <c r="I48">
+        <v>-0.001280812274333911</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.004423512922096128</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.009318523708439802</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.007911350348132732</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0004125364808267898</v>
+      </c>
+      <c r="F49">
+        <v>-0.007593449233415614</v>
+      </c>
+      <c r="G49">
+        <v>-0.01960289756852063</v>
+      </c>
+      <c r="H49">
+        <v>-0.0121302957524032</v>
+      </c>
+      <c r="I49">
+        <v>-0.001961699503485858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.005799947154000824</v>
+        <v>-0.01086720710822402</v>
       </c>
       <c r="C50">
-        <v>-0.09059215098118012</v>
+        <v>-0.09052333038706566</v>
       </c>
       <c r="D50">
-        <v>0.005437282223139294</v>
+        <v>0.00909616048991831</v>
       </c>
       <c r="E50">
-        <v>-0.005748949034120346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.003306989598620897</v>
+      </c>
+      <c r="F50">
+        <v>0.01617565070922313</v>
+      </c>
+      <c r="G50">
+        <v>0.01955545774345643</v>
+      </c>
+      <c r="H50">
+        <v>0.06402250614978693</v>
+      </c>
+      <c r="I50">
+        <v>0.05348672612605984</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.006409093900697656</v>
+        <v>0.004171355807853524</v>
       </c>
       <c r="C51">
-        <v>-0.04180583984471457</v>
+        <v>-0.03676988749494205</v>
       </c>
       <c r="D51">
-        <v>0.07874268282733451</v>
+        <v>0.00182885951883013</v>
       </c>
       <c r="E51">
-        <v>-0.05383165817279036</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.06218480197401738</v>
+      </c>
+      <c r="F51">
+        <v>-0.003534932615368776</v>
+      </c>
+      <c r="G51">
+        <v>0.002367723801086157</v>
+      </c>
+      <c r="H51">
+        <v>0.1077883379282746</v>
+      </c>
+      <c r="I51">
+        <v>-0.02611413696741648</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.04725543120072015</v>
+        <v>-0.05167887098869537</v>
       </c>
       <c r="C53">
-        <v>-0.1649246966257664</v>
+        <v>-0.1526021550712579</v>
       </c>
       <c r="D53">
-        <v>-0.05971116349817112</v>
+        <v>0.04697207008745424</v>
       </c>
       <c r="E53">
-        <v>0.03125876330298603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.08818807323765034</v>
+      </c>
+      <c r="F53">
+        <v>0.01057815662404544</v>
+      </c>
+      <c r="G53">
+        <v>0.03298225669752844</v>
+      </c>
+      <c r="H53">
+        <v>0.01444843669240333</v>
+      </c>
+      <c r="I53">
+        <v>0.02216488409935314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.003729361056813419</v>
+        <v>-0.01271072245619309</v>
       </c>
       <c r="C54">
-        <v>-0.03503842081756481</v>
+        <v>-0.05972818331084752</v>
       </c>
       <c r="D54">
-        <v>0.06920595730697325</v>
+        <v>-0.01889278684236375</v>
       </c>
       <c r="E54">
-        <v>-0.02425962016176429</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0532584702009225</v>
+      </c>
+      <c r="F54">
+        <v>0.009517036502574518</v>
+      </c>
+      <c r="G54">
+        <v>-0.01392497751830816</v>
+      </c>
+      <c r="H54">
+        <v>0.09172384834757438</v>
+      </c>
+      <c r="I54">
+        <v>-0.03582869042975843</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.03620956288597844</v>
+        <v>-0.03227338827934428</v>
       </c>
       <c r="C55">
-        <v>-0.1322219010387465</v>
+        <v>-0.1113211373910068</v>
       </c>
       <c r="D55">
-        <v>-0.05725386708687352</v>
+        <v>0.05189717913435633</v>
       </c>
       <c r="E55">
-        <v>0.006455041568705285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.07175344410552885</v>
+      </c>
+      <c r="F55">
+        <v>-0.002513643147847885</v>
+      </c>
+      <c r="G55">
+        <v>0.0235995202967727</v>
+      </c>
+      <c r="H55">
+        <v>0.02202357373014116</v>
+      </c>
+      <c r="I55">
+        <v>-0.01812189836129661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.05207181767784654</v>
+        <v>-0.0458682228220622</v>
       </c>
       <c r="C56">
-        <v>-0.2010370757659721</v>
+        <v>-0.1818456525216293</v>
       </c>
       <c r="D56">
-        <v>-0.08400580688034487</v>
+        <v>0.07304130888510257</v>
       </c>
       <c r="E56">
-        <v>0.05473090121008845</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.1271206301836529</v>
+      </c>
+      <c r="F56">
+        <v>0.005948555937872502</v>
+      </c>
+      <c r="G56">
+        <v>0.07540273422170202</v>
+      </c>
+      <c r="H56">
+        <v>0.004525524755807138</v>
+      </c>
+      <c r="I56">
+        <v>0.01666403037884778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.0119287750105507</v>
+        <v>-0.008475995150389732</v>
       </c>
       <c r="C58">
-        <v>-0.1421989953875887</v>
+        <v>-0.1575931788516133</v>
       </c>
       <c r="D58">
-        <v>0.2809112545269225</v>
+        <v>-0.04166029240190321</v>
       </c>
       <c r="E58">
-        <v>-0.09670216827490563</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.2564804327994284</v>
+      </c>
+      <c r="F58">
+        <v>0.06636190551088723</v>
+      </c>
+      <c r="G58">
+        <v>0.2334094932497431</v>
+      </c>
+      <c r="H58">
+        <v>-0.007316072627902634</v>
+      </c>
+      <c r="I58">
+        <v>-0.03811648851260848</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.253810048694155</v>
+        <v>-0.2743186550459514</v>
       </c>
       <c r="C59">
-        <v>0.0207437763337664</v>
+        <v>0.03294408755343731</v>
       </c>
       <c r="D59">
-        <v>0.07078197566164916</v>
+        <v>-0.0148661976098314</v>
       </c>
       <c r="E59">
-        <v>0.0007539955033185218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04709653800600481</v>
+      </c>
+      <c r="F59">
+        <v>-0.01925516239605473</v>
+      </c>
+      <c r="G59">
+        <v>0.0175370981503072</v>
+      </c>
+      <c r="H59">
+        <v>-0.02031625252545374</v>
+      </c>
+      <c r="I59">
+        <v>0.100954140104216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.116610093012807</v>
+        <v>-0.1438308006727308</v>
       </c>
       <c r="C60">
-        <v>-0.1643318938514299</v>
+        <v>-0.1698636698235662</v>
       </c>
       <c r="D60">
-        <v>-0.006438282711004405</v>
+        <v>0.02330279243112287</v>
       </c>
       <c r="E60">
-        <v>-0.03835411649071634</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.001743898978174234</v>
+      </c>
+      <c r="F60">
+        <v>-0.1109839659563124</v>
+      </c>
+      <c r="G60">
+        <v>-0.2652991540487364</v>
+      </c>
+      <c r="H60">
+        <v>-0.2834573967008697</v>
+      </c>
+      <c r="I60">
+        <v>-0.06446311506407493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.005595242295418237</v>
+        <v>-0.01372787383199827</v>
       </c>
       <c r="C61">
-        <v>-0.07768771877140665</v>
+        <v>-0.1006288716689444</v>
       </c>
       <c r="D61">
-        <v>0.04248983682165845</v>
+        <v>0.02014782849824348</v>
       </c>
       <c r="E61">
-        <v>-0.05570447854212545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.05112532222263955</v>
+      </c>
+      <c r="F61">
+        <v>-0.002982661356205377</v>
+      </c>
+      <c r="G61">
+        <v>-0.05537575560816634</v>
+      </c>
+      <c r="H61">
+        <v>0.05796796157670524</v>
+      </c>
+      <c r="I61">
+        <v>-0.01750104029270508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0005332385550673686</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.000622737312431842</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.001532840550276466</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.0001041359297273439</v>
+      </c>
+      <c r="F62">
+        <v>0.001363557606676232</v>
+      </c>
+      <c r="G62">
+        <v>0.001947965641468087</v>
+      </c>
+      <c r="H62">
+        <v>0.005519757423201818</v>
+      </c>
+      <c r="I62">
+        <v>0.002595085092476377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.008442187761446828</v>
+        <v>-0.0143356512923717</v>
       </c>
       <c r="C63">
-        <v>-0.05195637649541299</v>
+        <v>-0.07088917776522016</v>
       </c>
       <c r="D63">
-        <v>0.04132353794225663</v>
+        <v>0.02490639918436926</v>
       </c>
       <c r="E63">
-        <v>-0.0361748769501346</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.04972398511297094</v>
+      </c>
+      <c r="F63">
+        <v>-0.005301859608741111</v>
+      </c>
+      <c r="G63">
+        <v>-0.03465413077197505</v>
+      </c>
+      <c r="H63">
+        <v>0.07651474836326473</v>
+      </c>
+      <c r="I63">
+        <v>0.01830723357706638</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.003131769524770329</v>
+        <v>-0.01013025950179421</v>
       </c>
       <c r="C64">
-        <v>-0.1299643326474808</v>
+        <v>-0.1098930191534875</v>
       </c>
       <c r="D64">
-        <v>-0.01246140448986335</v>
+        <v>0.02062486618083148</v>
       </c>
       <c r="E64">
-        <v>-0.03924706232342796</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.008904397203751179</v>
+      </c>
+      <c r="F64">
+        <v>0.02653283084180901</v>
+      </c>
+      <c r="G64">
+        <v>-0.02221130197159134</v>
+      </c>
+      <c r="H64">
+        <v>-0.001635417166534639</v>
+      </c>
+      <c r="I64">
+        <v>0.01843912358742254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01249408355874484</v>
+        <v>-0.02348336828850082</v>
       </c>
       <c r="C65">
-        <v>-0.06733034923747842</v>
+        <v>-0.0859483422162387</v>
       </c>
       <c r="D65">
-        <v>0.06368611449734772</v>
+        <v>-0.01019678774651499</v>
       </c>
       <c r="E65">
-        <v>-0.05868616013196497</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.09176221612105459</v>
+      </c>
+      <c r="F65">
+        <v>0.007090736831031448</v>
+      </c>
+      <c r="G65">
+        <v>-0.07105282469129019</v>
+      </c>
+      <c r="H65">
+        <v>-0.00917071753152829</v>
+      </c>
+      <c r="I65">
+        <v>-0.03147342717292029</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.00326038095149972</v>
+        <v>-0.004826008606922472</v>
       </c>
       <c r="C66">
-        <v>-0.1289610209667795</v>
+        <v>-0.1515665641493889</v>
       </c>
       <c r="D66">
-        <v>0.1113152505472741</v>
+        <v>0.0005977466335308261</v>
       </c>
       <c r="E66">
-        <v>-0.07760414856532989</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.08686018887524155</v>
+      </c>
+      <c r="F66">
+        <v>-0.003032724873498916</v>
+      </c>
+      <c r="G66">
+        <v>-0.02219079372102551</v>
+      </c>
+      <c r="H66">
+        <v>0.0514141109299158</v>
+      </c>
+      <c r="I66">
+        <v>-0.03627530154398129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01564655713479363</v>
+        <v>-0.01692321550128442</v>
       </c>
       <c r="C67">
-        <v>-0.0392908549869903</v>
+        <v>-0.05558012692061075</v>
       </c>
       <c r="D67">
-        <v>-0.006395901715071431</v>
+        <v>0.02466189093338131</v>
       </c>
       <c r="E67">
-        <v>-0.03830383505957084</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.03118830845970384</v>
+      </c>
+      <c r="F67">
+        <v>0.03765774727879199</v>
+      </c>
+      <c r="G67">
+        <v>-0.03814236266236058</v>
+      </c>
+      <c r="H67">
+        <v>0.04072963396504554</v>
+      </c>
+      <c r="I67">
+        <v>0.02062479772098803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2551873387495484</v>
+        <v>-0.2842622363931014</v>
       </c>
       <c r="C68">
-        <v>0.02838870237424535</v>
+        <v>0.03596003355557197</v>
       </c>
       <c r="D68">
-        <v>0.05383627344978401</v>
+        <v>-0.03668181316484037</v>
       </c>
       <c r="E68">
-        <v>0.01389646036887896</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.04182266300033515</v>
+      </c>
+      <c r="F68">
+        <v>0.006932441115839917</v>
+      </c>
+      <c r="G68">
+        <v>0.05531086530231235</v>
+      </c>
+      <c r="H68">
+        <v>-0.02332669763911471</v>
+      </c>
+      <c r="I68">
+        <v>0.09912106387871858</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.01166136524033547</v>
+        <v>-0.008031962780738137</v>
       </c>
       <c r="C69">
-        <v>-0.1253598434967481</v>
+        <v>-0.09098818218176548</v>
       </c>
       <c r="D69">
-        <v>-0.03518171741214723</v>
+        <v>0.02590482072458698</v>
       </c>
       <c r="E69">
-        <v>-0.01729103504203247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02259812633463638</v>
+      </c>
+      <c r="F69">
+        <v>0.007310025934546128</v>
+      </c>
+      <c r="G69">
+        <v>-0.0004899406897465748</v>
+      </c>
+      <c r="H69">
+        <v>0.05107546199184945</v>
+      </c>
+      <c r="I69">
+        <v>0.04318407256912749</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2685008172711906</v>
+        <v>-0.2729254895199931</v>
       </c>
       <c r="C71">
-        <v>0.05570630841020045</v>
+        <v>0.06277466334682921</v>
       </c>
       <c r="D71">
-        <v>0.05402612629514198</v>
+        <v>-0.02231696113423253</v>
       </c>
       <c r="E71">
-        <v>0.03310083629434615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.04409820629745684</v>
+      </c>
+      <c r="F71">
+        <v>0.0323221754649112</v>
+      </c>
+      <c r="G71">
+        <v>0.006279851009846153</v>
+      </c>
+      <c r="H71">
+        <v>0.06342821711762599</v>
+      </c>
+      <c r="I71">
+        <v>0.1135984582271013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.05338389197343089</v>
+        <v>-0.05588545762445639</v>
       </c>
       <c r="C72">
-        <v>-0.1763960568658779</v>
+        <v>-0.1597807776493836</v>
       </c>
       <c r="D72">
-        <v>0.02463911370850801</v>
+        <v>0.01265096948372509</v>
       </c>
       <c r="E72">
-        <v>-0.09291802838520166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.006271293742289737</v>
+      </c>
+      <c r="F72">
+        <v>-0.01511442109867481</v>
+      </c>
+      <c r="G72">
+        <v>-0.03640845032862616</v>
+      </c>
+      <c r="H72">
+        <v>-0.0445351367641397</v>
+      </c>
+      <c r="I72">
+        <v>-0.08544607579843372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.09202848656452378</v>
+        <v>-0.1425372325792807</v>
       </c>
       <c r="C73">
-        <v>-0.167204606306583</v>
+        <v>-0.2072538453405458</v>
       </c>
       <c r="D73">
-        <v>-0.02776005307697898</v>
+        <v>0.03915036797817343</v>
       </c>
       <c r="E73">
-        <v>-0.05773707060021048</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.004772237882350263</v>
+      </c>
+      <c r="F73">
+        <v>-0.1250427599960142</v>
+      </c>
+      <c r="G73">
+        <v>-0.4431088758484674</v>
+      </c>
+      <c r="H73">
+        <v>-0.2792946866872154</v>
+      </c>
+      <c r="I73">
+        <v>0.01504972702589476</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.03785345306919219</v>
+        <v>-0.03889784303580932</v>
       </c>
       <c r="C74">
-        <v>-0.1260428377439894</v>
+        <v>-0.1182265190224458</v>
       </c>
       <c r="D74">
-        <v>-0.08241065449557143</v>
+        <v>0.04636837621860233</v>
       </c>
       <c r="E74">
-        <v>0.01900712593342508</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.07534158205423475</v>
+      </c>
+      <c r="F74">
+        <v>0.0109671408630236</v>
+      </c>
+      <c r="G74">
+        <v>0.01999104593082739</v>
+      </c>
+      <c r="H74">
+        <v>0.01969818243845927</v>
+      </c>
+      <c r="I74">
+        <v>-0.009026220812683693</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.09431283627707898</v>
+        <v>-0.06866090906012358</v>
       </c>
       <c r="C75">
-        <v>-0.2447621589692729</v>
+        <v>-0.2094437063778905</v>
       </c>
       <c r="D75">
-        <v>-0.1921484023750817</v>
+        <v>0.09837364240656073</v>
       </c>
       <c r="E75">
-        <v>0.08730957181470896</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.2241415515003514</v>
+      </c>
+      <c r="F75">
+        <v>0.09323286673118737</v>
+      </c>
+      <c r="G75">
+        <v>0.08827481702228486</v>
+      </c>
+      <c r="H75">
+        <v>-0.009745322474799464</v>
+      </c>
+      <c r="I75">
+        <v>0.06963779407083641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.04191837454709527</v>
+        <v>-0.03883887070256208</v>
       </c>
       <c r="C76">
-        <v>-0.1576834694452934</v>
+        <v>-0.1493333629666071</v>
       </c>
       <c r="D76">
-        <v>-0.08651051589572299</v>
+        <v>0.07504398439199081</v>
       </c>
       <c r="E76">
-        <v>0.01562599659035329</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.09703632931890127</v>
+      </c>
+      <c r="F76">
+        <v>0.004704627120653915</v>
+      </c>
+      <c r="G76">
+        <v>0.00269066371457818</v>
+      </c>
+      <c r="H76">
+        <v>0.02297010881859657</v>
+      </c>
+      <c r="I76">
+        <v>0.002957711276501041</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01884803811303367</v>
+        <v>-0.01956623509594335</v>
       </c>
       <c r="C77">
-        <v>-0.1301878973696747</v>
+        <v>-0.2164695130560579</v>
       </c>
       <c r="D77">
-        <v>0.4710162239429456</v>
+        <v>-0.940816979503876</v>
       </c>
       <c r="E77">
-        <v>0.7976540626041445</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.2180997539272662</v>
+      </c>
+      <c r="F77">
+        <v>0.02969439357050355</v>
+      </c>
+      <c r="G77">
+        <v>-0.02094584846537752</v>
+      </c>
+      <c r="H77">
+        <v>0.05043472627770138</v>
+      </c>
+      <c r="I77">
+        <v>-0.02527527317826208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.01759010313035712</v>
+        <v>-0.02203160472781967</v>
       </c>
       <c r="C78">
-        <v>-0.1410218706777945</v>
+        <v>-0.1245217238741167</v>
       </c>
       <c r="D78">
-        <v>0.1109577791280494</v>
+        <v>0.04863218292424331</v>
       </c>
       <c r="E78">
-        <v>-0.07555541205563858</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06045940299526189</v>
+      </c>
+      <c r="F78">
+        <v>-0.01367843532688004</v>
+      </c>
+      <c r="G78">
+        <v>0.07988960264266062</v>
+      </c>
+      <c r="H78">
+        <v>0.1421205248666737</v>
+      </c>
+      <c r="I78">
+        <v>-0.1317575381568252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.06109270628435676</v>
+        <v>-0.05626186569926238</v>
       </c>
       <c r="C79">
-        <v>-0.2864522842000026</v>
+        <v>-0.21370069036881</v>
       </c>
       <c r="D79">
-        <v>-0.2089566755937246</v>
+        <v>0.08899218845910463</v>
       </c>
       <c r="E79">
-        <v>0.09835019363109287</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.2350080989152317</v>
+      </c>
+      <c r="F79">
+        <v>0.01970983392193991</v>
+      </c>
+      <c r="G79">
+        <v>0.1646060892687109</v>
+      </c>
+      <c r="H79">
+        <v>0.04437105129088898</v>
+      </c>
+      <c r="I79">
+        <v>0.07545108825721217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.01235043226996582</v>
+        <v>-0.006872026195980035</v>
       </c>
       <c r="C80">
-        <v>-0.06296274038885703</v>
+        <v>-0.06158777193297928</v>
       </c>
       <c r="D80">
-        <v>0.000719499362697389</v>
+        <v>0.03426303604382108</v>
       </c>
       <c r="E80">
-        <v>-0.04141472116491875</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04827388835799105</v>
+      </c>
+      <c r="F80">
+        <v>-0.0729133544074244</v>
+      </c>
+      <c r="G80">
+        <v>-0.04075559978323006</v>
+      </c>
+      <c r="H80">
+        <v>-0.03856593955855171</v>
+      </c>
+      <c r="I80">
+        <v>0.05322015857663522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.03190766270566793</v>
+        <v>-0.02083361929593704</v>
       </c>
       <c r="C81">
-        <v>-0.1481489889980732</v>
+        <v>-0.1301524468120892</v>
       </c>
       <c r="D81">
-        <v>-0.1160051128005019</v>
+        <v>0.04986445127323855</v>
       </c>
       <c r="E81">
-        <v>0.06250114521789506</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.1038262438508298</v>
+      </c>
+      <c r="F81">
+        <v>0.01867855891676172</v>
+      </c>
+      <c r="G81">
+        <v>0.06189915750164074</v>
+      </c>
+      <c r="H81">
+        <v>0.06946143320395749</v>
+      </c>
+      <c r="I81">
+        <v>0.08502698690645354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.06230842543809623</v>
+        <v>-0.05089070672743286</v>
       </c>
       <c r="C82">
-        <v>-0.1901778443434484</v>
+        <v>-0.1523061066654271</v>
       </c>
       <c r="D82">
-        <v>-0.1377084044812482</v>
+        <v>0.08065070604917343</v>
       </c>
       <c r="E82">
-        <v>0.04041400237857343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.132383053330651</v>
+      </c>
+      <c r="F82">
+        <v>0.004864633596949265</v>
+      </c>
+      <c r="G82">
+        <v>0.0365066341296385</v>
+      </c>
+      <c r="H82">
+        <v>0.03611254661050473</v>
+      </c>
+      <c r="I82">
+        <v>0.04939026412436032</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.0002347515401550092</v>
+        <v>-0.001353616294788448</v>
       </c>
       <c r="C83">
-        <v>-0.065762282059974</v>
+        <v>-0.01744555805668544</v>
       </c>
       <c r="D83">
-        <v>0.04824437341405006</v>
+        <v>-0.0386089828005678</v>
       </c>
       <c r="E83">
-        <v>0.01529526472275975</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.003578348025364411</v>
+      </c>
+      <c r="F83">
+        <v>-0.9215303204918415</v>
+      </c>
+      <c r="G83">
+        <v>0.2671857977313424</v>
+      </c>
+      <c r="H83">
+        <v>-0.02202147054941128</v>
+      </c>
+      <c r="I83">
+        <v>0.1126854042717636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.003994610106846657</v>
+        <v>0.001880566650904342</v>
       </c>
       <c r="C84">
-        <v>-0.02572922921130583</v>
+        <v>-0.03763095193478668</v>
       </c>
       <c r="D84">
-        <v>0.03900503649873901</v>
+        <v>0.03908385732532899</v>
       </c>
       <c r="E84">
-        <v>-0.06378022179742571</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.07309288651972268</v>
+      </c>
+      <c r="F84">
+        <v>0.0498505875344213</v>
+      </c>
+      <c r="G84">
+        <v>0.0560891528090726</v>
+      </c>
+      <c r="H84">
+        <v>0.06542181709069184</v>
+      </c>
+      <c r="I84">
+        <v>-0.04939050464698055</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.04765674622444858</v>
+        <v>-0.0343739397904233</v>
       </c>
       <c r="C85">
-        <v>-0.1908377846214022</v>
+        <v>-0.1524677311791238</v>
       </c>
       <c r="D85">
-        <v>-0.1390104697933602</v>
+        <v>0.09101790553615483</v>
       </c>
       <c r="E85">
-        <v>0.043547317816612</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1709350876055575</v>
+      </c>
+      <c r="F85">
+        <v>0.01806663225983289</v>
+      </c>
+      <c r="G85">
+        <v>0.07707357249164677</v>
+      </c>
+      <c r="H85">
+        <v>0.02656831414295521</v>
+      </c>
+      <c r="I85">
+        <v>0.04330938176680121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02002273524899404</v>
+        <v>-0.01359281881606063</v>
       </c>
       <c r="C86">
-        <v>-0.04726929336275413</v>
+        <v>-0.07074562628065233</v>
       </c>
       <c r="D86">
-        <v>0.09223948427819498</v>
+        <v>-0.01095199644979065</v>
       </c>
       <c r="E86">
-        <v>0.02978434482319577</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.06040916111456407</v>
+      </c>
+      <c r="F86">
+        <v>0.04960140868448663</v>
+      </c>
+      <c r="G86">
+        <v>0.07248640999739721</v>
+      </c>
+      <c r="H86">
+        <v>0.07160186725423187</v>
+      </c>
+      <c r="I86">
+        <v>0.0754024148210249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01501011927236988</v>
+        <v>-0.01293568809386097</v>
       </c>
       <c r="C87">
-        <v>-0.1104740843126201</v>
+        <v>-0.120759998426928</v>
       </c>
       <c r="D87">
-        <v>0.1439326716131863</v>
+        <v>-0.03141095567116731</v>
       </c>
       <c r="E87">
-        <v>-0.06808303952860999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.1107381343650447</v>
+      </c>
+      <c r="F87">
+        <v>0.01496712008262156</v>
+      </c>
+      <c r="G87">
+        <v>0.03716446119115845</v>
+      </c>
+      <c r="H87">
+        <v>0.02198873966501885</v>
+      </c>
+      <c r="I87">
+        <v>-0.1364996548326898</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01832465467837339</v>
+        <v>-0.03241999969542216</v>
       </c>
       <c r="C88">
-        <v>-0.08394264790524698</v>
+        <v>-0.08770829759461372</v>
       </c>
       <c r="D88">
-        <v>-0.05138898685183475</v>
+        <v>0.02713785176226332</v>
       </c>
       <c r="E88">
-        <v>-0.005532063180199716</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01588554877601804</v>
+      </c>
+      <c r="F88">
+        <v>0.008520602445022351</v>
+      </c>
+      <c r="G88">
+        <v>-0.02411390596693747</v>
+      </c>
+      <c r="H88">
+        <v>0.01086313691065059</v>
+      </c>
+      <c r="I88">
+        <v>0.0263893534012566</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4567280996942032</v>
+        <v>-0.4139423787601523</v>
       </c>
       <c r="C89">
-        <v>0.1144870023218606</v>
+        <v>0.1196997173829406</v>
       </c>
       <c r="D89">
-        <v>-0.01232567867043469</v>
+        <v>-0.009781255184407636</v>
       </c>
       <c r="E89">
-        <v>-0.2548118569754428</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.03740675298153402</v>
+      </c>
+      <c r="F89">
+        <v>-0.07905433434820844</v>
+      </c>
+      <c r="G89">
+        <v>0.1075820103285838</v>
+      </c>
+      <c r="H89">
+        <v>0.05715773357626387</v>
+      </c>
+      <c r="I89">
+        <v>-0.7810720806779333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3312701332817588</v>
+        <v>-0.3262095207267576</v>
       </c>
       <c r="C90">
-        <v>0.06232067466650098</v>
+        <v>0.06572202621378531</v>
       </c>
       <c r="D90">
-        <v>0.08341206807657174</v>
+        <v>-0.02172799063365035</v>
       </c>
       <c r="E90">
-        <v>0.01480363994038369</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.04628350768296425</v>
+      </c>
+      <c r="F90">
+        <v>0.0161141342407217</v>
+      </c>
+      <c r="G90">
+        <v>0.0193418813500924</v>
+      </c>
+      <c r="H90">
+        <v>-0.01492769889363992</v>
+      </c>
+      <c r="I90">
+        <v>0.1628393096890078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.04764161225056276</v>
+        <v>-0.05080061213717156</v>
       </c>
       <c r="C91">
-        <v>-0.170966887737927</v>
+        <v>-0.1363309946037878</v>
       </c>
       <c r="D91">
-        <v>-0.1129544338971349</v>
+        <v>0.04900632652719778</v>
       </c>
       <c r="E91">
-        <v>0.06348918607904802</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.1297401061189265</v>
+      </c>
+      <c r="F91">
+        <v>-0.02581857736364314</v>
+      </c>
+      <c r="G91">
+        <v>0.05727575315157445</v>
+      </c>
+      <c r="H91">
+        <v>0.01094013452641877</v>
+      </c>
+      <c r="I91">
+        <v>0.02626659294105196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3480366324707238</v>
+        <v>-0.350844671676399</v>
       </c>
       <c r="C92">
-        <v>0.1108501630668537</v>
+        <v>0.1153824607403993</v>
       </c>
       <c r="D92">
-        <v>0.06540822100473458</v>
+        <v>-0.04939064704357969</v>
       </c>
       <c r="E92">
-        <v>0.04014193100183314</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.05921247949350372</v>
+      </c>
+      <c r="F92">
+        <v>0.09770178515498171</v>
+      </c>
+      <c r="G92">
+        <v>0.01873124274726094</v>
+      </c>
+      <c r="H92">
+        <v>0.03677682673667995</v>
+      </c>
+      <c r="I92">
+        <v>0.1601102084403321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3403054602416447</v>
+        <v>-0.328138357547799</v>
       </c>
       <c r="C93">
-        <v>0.08656796143033865</v>
+        <v>0.1043573273963348</v>
       </c>
       <c r="D93">
-        <v>-0.01647126291401289</v>
+        <v>0.00734908670008932</v>
       </c>
       <c r="E93">
-        <v>0.01999943359986715</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008809575664035339</v>
+      </c>
+      <c r="F93">
+        <v>0.02076204392598569</v>
+      </c>
+      <c r="G93">
+        <v>0.0324060541653352</v>
+      </c>
+      <c r="H93">
+        <v>0.04163332563613562</v>
+      </c>
+      <c r="I93">
+        <v>0.1079770919630888</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.09757882434625627</v>
+        <v>-0.08573489866461186</v>
       </c>
       <c r="C94">
-        <v>-0.2840042198542239</v>
+        <v>-0.2278427967941113</v>
       </c>
       <c r="D94">
-        <v>-0.2821460850337821</v>
+        <v>0.1423494691672377</v>
       </c>
       <c r="E94">
-        <v>0.0963456340912944</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.3801021687549873</v>
+      </c>
+      <c r="F94">
+        <v>0.05138999231836826</v>
+      </c>
+      <c r="G94">
+        <v>0.2722408048479127</v>
+      </c>
+      <c r="H94">
+        <v>-0.1124195844912083</v>
+      </c>
+      <c r="I94">
+        <v>-0.1687892611829726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.02700893803867305</v>
+        <v>-0.03198524003184065</v>
       </c>
       <c r="C95">
-        <v>-0.05907298532700175</v>
+        <v>-0.1080843553686019</v>
       </c>
       <c r="D95">
-        <v>0.01347800080207353</v>
+        <v>-0.0002143867319079166</v>
       </c>
       <c r="E95">
-        <v>-0.03056030460492482</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.03135696966135343</v>
+      </c>
+      <c r="F95">
+        <v>0.02296935848156533</v>
+      </c>
+      <c r="G95">
+        <v>-0.123586584248856</v>
+      </c>
+      <c r="H95">
+        <v>0.05127308396958001</v>
+      </c>
+      <c r="I95">
+        <v>-0.01088057476689187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +3478,109 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.004272293450784241</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.006720390803695587</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0225594223819213</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.01722502187692454</v>
+      </c>
+      <c r="F97">
+        <v>0.015134371607613</v>
+      </c>
+      <c r="G97">
+        <v>-0.0220487773151802</v>
+      </c>
+      <c r="H97">
+        <v>-0.009049551167304366</v>
+      </c>
+      <c r="I97">
+        <v>0.0115766787349432</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.07594029997806602</v>
+        <v>-0.1251530358324514</v>
       </c>
       <c r="C98">
-        <v>-0.1543636259008676</v>
+        <v>-0.176188267384289</v>
       </c>
       <c r="D98">
-        <v>0.02601706613384857</v>
+        <v>0.04210369744684424</v>
       </c>
       <c r="E98">
-        <v>-0.04797797793310569</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.0279017790674082</v>
+      </c>
+      <c r="F98">
+        <v>-0.08431543805973121</v>
+      </c>
+      <c r="G98">
+        <v>-0.3747847717591272</v>
+      </c>
+      <c r="H98">
+        <v>-0.3237427865088577</v>
+      </c>
+      <c r="I98">
+        <v>-0.03012677147554672</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.001699661692508158</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.0004985654159283232</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.003576435876314584</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.007689421572820949</v>
+      </c>
+      <c r="F99">
+        <v>0.004032160817956574</v>
+      </c>
+      <c r="G99">
+        <v>-0.001392375177103899</v>
+      </c>
+      <c r="H99">
+        <v>0.0005341750260730802</v>
+      </c>
+      <c r="I99">
+        <v>0.004330169534255651</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002945375778462214</v>
+        <v>-0.003892602154927213</v>
       </c>
       <c r="C101">
-        <v>-0.04257364093289159</v>
+        <v>-0.070583716202645</v>
       </c>
       <c r="D101">
-        <v>0.07267346043478856</v>
+        <v>0.007263168179476845</v>
       </c>
       <c r="E101">
-        <v>-0.08532956954724029</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.1165285314750787</v>
+      </c>
+      <c r="F101">
+        <v>-0.04329205673679756</v>
+      </c>
+      <c r="G101">
+        <v>-0.09068987952437976</v>
+      </c>
+      <c r="H101">
+        <v>0.1987183000677596</v>
+      </c>
+      <c r="I101">
+        <v>-0.05686408539641083</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.02530435301779743</v>
+        <v>-0.01084226799928101</v>
       </c>
       <c r="C102">
-        <v>-0.1028925642732247</v>
+        <v>-0.05088414028129384</v>
       </c>
       <c r="D102">
-        <v>-0.07050929273805961</v>
+        <v>0.02693671476963314</v>
       </c>
       <c r="E102">
-        <v>0.02441228077152392</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.07133425669735657</v>
+      </c>
+      <c r="F102">
+        <v>-0.009817774229248179</v>
+      </c>
+      <c r="G102">
+        <v>0.03781091239819605</v>
+      </c>
+      <c r="H102">
+        <v>0.003233000417047554</v>
+      </c>
+      <c r="I102">
+        <v>-0.003200865284392579</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
